--- a/biology/Zoologie/Fahire_Battalgil/Fahire_Battalgil.xlsx
+++ b/biology/Zoologie/Fahire_Battalgil/Fahire_Battalgil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fahire Battalgil ou Fahire Battalgazi (né en 1902 à Constantinople (aujourd'hui Istanbul) et morte en 1948 dans cette même ville) est une ichtyologiste turque et l'une des premières femmes à avoir été professeur d'université en Turquie.
 </t>
@@ -511,7 +523,9 @@
           <t>Patronyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Battalgil a d'abord été connue sous le nom de Fahire Akim Hanim. En accord avec la Loi turque sur les noms de famille de 1934, sa famille a adopté le nom de Battalgil dont l'orthographe a été changée en Battalgazi à partir de 1943.
 </t>
@@ -542,13 +556,15 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nom de plusieurs espèces leur a été donné en son honneur, notamment :
 Alburnus battalgilae Ozulug &amp; Freyhof, 2007 - un poisson famille des Cyprinidae
 Cobitis fahireae Erkakan, Atalay-Ekmeki &amp; Nalbant, 1998 - un poisson famille des Cobitidae
 Phoxinellus fahirae Ladiges, 1960 - un poisson famille des Cyprinidae
-Pseudophoxinus battalgilae[1]Bogutskaya, 1997 - un poisson famille des Cyprinidae</t>
+Pseudophoxinus battalgilaeBogutskaya, 1997 - un poisson famille des Cyprinidae</t>
         </is>
       </c>
     </row>
